--- a/総合演習資料/4.テスト仕様/運用テスト仕様書.xlsx
+++ b/総合演習資料/4.テスト仕様/運用テスト仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\java3\総合演習資料\4.テスト仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -152,13 +152,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>掲示板システム</t>
-    <rPh sb="0" eb="3">
-      <t>ケイジバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2017年</t>
     <rPh sb="4" eb="5">
       <t>ネン</t>
@@ -570,6 +563,396 @@
     </rPh>
     <rPh sb="44" eb="45">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「仙台支店営業部」「営業1課」に変更</t>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認画面が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除機能確認</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID「201705103」の「綾瀬　美紀」の行の「削除」ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除内容確認画面が表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「削除」ボタンを押す</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「修正」ボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録機能確認</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理（管理用）の「新規登録」を押す</t>
+    <rPh sb="13" eb="15">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面が表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID「201705103」の「綾瀬　美紀」の情報を再度入力し、「登録」ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面が表示される。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「登録」ボタンを押す</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8～15を「詳細画面（管理者）」から行う</t>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8～15同様の表示・処理がされることを確認する</t>
+    <rPh sb="4" eb="6">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報システム</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般としてログイン</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID「201705103」の「綾瀬　美紀」でログインする。</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>アヤセ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ミキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理（一般用）の「個人情報を確認」を押す</t>
+    <rPh sb="13" eb="15">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正（一般用）画面が表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>イッパンヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「旧パスワード」と「新パスワード」を入力して「修正」をおす</t>
+    <rPh sb="1" eb="2">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトボタンをおす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面が表示される</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID「201705103」の「綾瀬　美紀」の新パスワードでログインする。</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>アヤセ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ミキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般社員としてログインができ、社員情報管理（一般用）が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直リンクテスト（未ログイン）</t>
+    <rPh sb="0" eb="1">
+      <t>チョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID「201705102」の「木本　誠二」の直リンクをおす</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID「201705102」の「木本　誠二」の詳細画面が表示される</t>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直リンクテスト（ログイン済）</t>
+    <rPh sb="0" eb="1">
+      <t>チョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID「201705101」の「管　一郎」の直リンクをおす</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>チョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID「201705101」の「管　一郎」の詳細画面が表示される</t>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -927,6 +1310,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -934,15 +1326,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1295,7 +1678,7 @@
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>1</v>
@@ -1879,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1921,19 +2304,19 @@
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="19"/>
       <c r="E3" s="23" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="25"/>
       <c r="I3" s="29"/>
       <c r="J3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1950,8 +2333,8 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="31" t="s">
-        <v>38</v>
+      <c r="B5" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -1959,19 +2342,19 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>7</v>
@@ -1993,15 +2376,15 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
@@ -2016,15 +2399,15 @@
       <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
@@ -2037,13 +2420,13 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>13</v>
@@ -2056,13 +2439,13 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
@@ -2075,13 +2458,13 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>13</v>
@@ -2094,13 +2477,13 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>13</v>
@@ -2113,13 +2496,13 @@
       <c r="B13" s="3">
         <v>7</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>13</v>
@@ -2132,15 +2515,15 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>13</v>
@@ -2150,262 +2533,466 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="2"/>
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="13"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="3"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="2"/>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="13"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="2"/>
+    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
+        <v>11</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="13"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="3"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="2"/>
+      <c r="B18" s="3">
+        <v>12</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="13"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="3"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="2"/>
+    <row r="19" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
+        <v>13</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="13"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="3"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="2"/>
+    <row r="20" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
+        <v>14</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="13"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="2"/>
+      <c r="B21" s="3">
+        <v>15</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="13"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="3"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="2"/>
+      <c r="B22" s="3">
+        <v>16</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="13"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="3"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="2"/>
+    <row r="23" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
+        <v>17</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="13"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="3"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="2"/>
+    <row r="24" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
+        <v>18</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="13"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="3"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="2"/>
+    <row r="25" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
+        <v>19</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="13"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="3"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="2"/>
+    <row r="26" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
+        <v>20</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="13"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="3"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="2"/>
+    <row r="27" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="3">
+        <v>21</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="13"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="3"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="2"/>
+    <row r="28" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
+        <v>22</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="13"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="3"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="2"/>
+    <row r="29" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
+        <v>23</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="13"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="3"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="2"/>
+    <row r="30" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B30" s="3">
+        <v>24</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="13"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="3"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="2"/>
+    <row r="31" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="3">
+        <v>25</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="13"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="3"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="2"/>
+      <c r="B32" s="3">
+        <v>26</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="13"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="3"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="2"/>
+      <c r="B33" s="3">
+        <v>27</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="13"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="3"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="2"/>
+    <row r="34" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="3">
+        <v>28</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="13"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="3"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="2"/>
+    <row r="35" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B35" s="3">
+        <v>29</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="13"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="3"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="2"/>
+    <row r="36" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="3">
+        <v>30</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="13"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="3"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="2"/>
+    <row r="37" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="3">
+        <v>31</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="13"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="3"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
+      <c r="B38" s="3">
+        <v>32</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="2"/>
@@ -2414,9 +3001,11 @@
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="3"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
+      <c r="B39" s="3">
+        <v>33</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="2"/>
@@ -2425,9 +3014,11 @@
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="3"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="B40" s="3">
+        <v>34</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="2"/>
@@ -2436,9 +3027,11 @@
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="3"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
+      <c r="B41" s="3">
+        <v>35</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="2"/>
@@ -2447,9 +3040,11 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="3"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
+      <c r="B42" s="3">
+        <v>36</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="2"/>
@@ -2458,9 +3053,11 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="3"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
+      <c r="B43" s="3">
+        <v>37</v>
+      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="2"/>
@@ -2469,9 +3066,11 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="3"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
+      <c r="B44" s="3">
+        <v>38</v>
+      </c>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="2"/>
@@ -2480,9 +3079,11 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="3"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="35"/>
+      <c r="B45" s="3">
+        <v>39</v>
+      </c>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="2"/>
@@ -2491,9 +3092,11 @@
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="3"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="35"/>
+      <c r="B46" s="3">
+        <v>40</v>
+      </c>
+      <c r="C46" s="31"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="2"/>
@@ -2503,8 +3106,8 @@
     </row>
     <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="2"/>
@@ -2514,8 +3117,8 @@
     </row>
     <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="2"/>
@@ -2525,8 +3128,8 @@
     </row>
     <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="35"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="2"/>
@@ -2536,8 +3139,8 @@
     </row>
     <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="2"/>
@@ -2547,8 +3150,8 @@
     </row>
     <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="35"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="2"/>
@@ -2558,8 +3161,8 @@
     </row>
     <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="35"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="2"/>
@@ -2569,8 +3172,8 @@
     </row>
     <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="35"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="2"/>
@@ -2580,8 +3183,8 @@
     </row>
     <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="3"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="2"/>
@@ -2591,8 +3194,8 @@
     </row>
     <row r="55" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="3"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="2"/>
@@ -2602,62 +3205,62 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H4"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合演習資料/4.テスト仕様/運用テスト仕様書.xlsx
+++ b/総合演習資料/4.テスト仕様/運用テスト仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\java3\総合演習資料\4.テスト仕様\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\javaWeb.git\総合演習資料\4.テスト仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -953,6 +953,487 @@
     <t>社員ID「201705101」の「管　一郎」の詳細画面が表示される</t>
     <rPh sb="28" eb="30">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同一IDでの新規登録</t>
+    <rPh sb="0" eb="2">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理（管理用）の「新規登録」を押す
+既に登録させている社員ID「201705103」の「綾瀬　美紀」の情報を入力し、「登録」ボタンを押す</t>
+    <rPh sb="13" eb="15">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面で「社員IDが重複しています」と表示される</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID未入力での新規登録</t>
+    <rPh sb="2" eb="5">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理（管理用）の「新規登録」を押す
+社員IDを未入力で、「登録」ボタンを押す</t>
+    <rPh sb="13" eb="15">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面で「社員IDを入力して下さい」と表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDに半角数字以外で新規登録</t>
+    <rPh sb="3" eb="5">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理（管理用）の「新規登録」を押す
+社員IDを半角数字以外を入力で、「登録」ボタンを押す</t>
+    <rPh sb="13" eb="15">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面で「社員IDは半角数字で入力して下さい」と表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード未入力での新規登録</t>
+    <rPh sb="5" eb="8">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理（管理用）の「新規登録」を押す
+パスワード未入力で、「登録」ボタンを押す</t>
+    <rPh sb="13" eb="15">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面で「パスワードを入力して下さい」と表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面で「パスワードは半角英数字で入力して下さい」と表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理（管理用）の「新規登録」を押す
+パスワードを半角英数字以外を入力で、「登録」ボタンを押す</t>
+    <rPh sb="13" eb="15">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードに半角数字以外で
+新規登録</t>
+    <rPh sb="6" eb="8">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前未入力での新規登録</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録内容確認画面で「名前を入力して下さい」と表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理（管理用）の「新規登録」を押す
+名前未入力で、「登録」ボタンを押す</t>
+    <rPh sb="13" eb="15">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正（管理用)画面で
+旧パスワード未入力での修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カンリヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理（管理用）の「修正」を押す
+旧パスワード未入力で、「修正」ボタンを押す</t>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面で「旧パスワードを入力して下さい」と表示される</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正（管理用)画面で
+新パスワード未入力での修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カンリヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理（管理用）の「修正」を押す
+新パスワード未入力で、「修正」ボタンを押す</t>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面で「新パスワードを入力して下さい」と表示される</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正（管理用)画面で
+旧パスワードに半角数字以外で修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カンリヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面で「旧パスワードは半角英数字で入力して下さい」と表示される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理（管理用）の「修正」を押す
+旧パスワードを半角英数字以外を入力で、「修正」ボタンを押す</t>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正（管理用)画面で
+新パスワードに半角数字以外で修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カンリヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理（管理用）の「修正」を押す
+新パスワードを半角英数字以外を入力で、「修正」ボタンを押す</t>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容確認画面で「新パスワードは半角英数字で入力して下さい」と表示される</t>
+    <rPh sb="10" eb="11">
+      <t>シン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1310,12 +1791,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1327,8 +1805,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2263,7 +2744,7 @@
   <dimension ref="B1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2333,26 +2814,26 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="34"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2376,10 +2857,10 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
@@ -2399,10 +2880,10 @@
       <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
@@ -2420,8 +2901,8 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
@@ -2439,8 +2920,8 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="8" t="s">
         <v>24</v>
       </c>
@@ -2458,8 +2939,8 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
@@ -2477,8 +2958,8 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="8" t="s">
         <v>30</v>
       </c>
@@ -2496,8 +2977,8 @@
       <c r="B13" s="3">
         <v>7</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="8" t="s">
         <v>33</v>
       </c>
@@ -2515,10 +2996,10 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
@@ -2536,8 +3017,8 @@
       <c r="B15" s="3">
         <v>9</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="8" t="s">
         <v>38</v>
       </c>
@@ -2555,8 +3036,8 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="8" t="s">
         <v>45</v>
       </c>
@@ -2574,10 +3055,10 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="8" t="s">
         <v>42</v>
       </c>
@@ -2595,8 +3076,8 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="8" t="s">
         <v>44</v>
       </c>
@@ -2614,10 +3095,10 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="32"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="8" t="s">
         <v>48</v>
       </c>
@@ -2635,8 +3116,8 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="8" t="s">
         <v>50</v>
       </c>
@@ -2654,8 +3135,8 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
@@ -2673,8 +3154,8 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="8" t="s">
         <v>54</v>
       </c>
@@ -2692,10 +3173,10 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="8" t="s">
         <v>58</v>
       </c>
@@ -2713,10 +3194,10 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="8" t="s">
         <v>22</v>
       </c>
@@ -2734,8 +3215,8 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="8" t="s">
         <v>23</v>
       </c>
@@ -2753,8 +3234,8 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="8" t="s">
         <v>24</v>
       </c>
@@ -2772,8 +3253,8 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="8" t="s">
         <v>28</v>
       </c>
@@ -2791,8 +3272,8 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="8" t="s">
         <v>30</v>
       </c>
@@ -2810,8 +3291,8 @@
       <c r="B29" s="3">
         <v>23</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="8" t="s">
         <v>33</v>
       </c>
@@ -2829,10 +3310,10 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="34"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="8" t="s">
         <v>59</v>
       </c>
@@ -2850,8 +3331,8 @@
       <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="8" t="s">
         <v>61</v>
       </c>
@@ -2869,8 +3350,8 @@
       <c r="B32" s="3">
         <v>26</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="8" t="s">
         <v>45</v>
       </c>
@@ -2888,10 +3369,10 @@
       <c r="B33" s="3">
         <v>27</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="8" t="s">
         <v>63</v>
       </c>
@@ -2909,10 +3390,10 @@
       <c r="B34" s="3">
         <v>28</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="32"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="8" t="s">
         <v>66</v>
       </c>
@@ -2930,10 +3411,10 @@
       <c r="B35" s="3">
         <v>29</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="8" t="s">
         <v>69</v>
       </c>
@@ -2951,8 +3432,8 @@
       <c r="B36" s="3">
         <v>30</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="8" t="s">
         <v>66</v>
       </c>
@@ -2970,10 +3451,10 @@
       <c r="B37" s="3">
         <v>31</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="8" t="s">
         <v>72</v>
       </c>
@@ -2987,138 +3468,220 @@
       <c r="I37" s="13"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>32</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="2"/>
+      <c r="C38" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="13"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>33</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="2"/>
+      <c r="C39" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="13"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>34</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="2"/>
+      <c r="C40" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="37"/>
+      <c r="E40" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="13"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>35</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="2"/>
+      <c r="C41" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="37"/>
+      <c r="E41" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="13"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>36</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="2"/>
+      <c r="C42" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="37"/>
+      <c r="E42" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H42" s="3"/>
       <c r="I42" s="13"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>37</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="2"/>
+      <c r="C43" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="37"/>
+      <c r="E43" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H43" s="3"/>
       <c r="I43" s="13"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="3">
         <v>38</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="2"/>
+      <c r="C44" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="37"/>
+      <c r="E44" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H44" s="3"/>
       <c r="I44" s="13"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="3">
         <v>39</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="2"/>
+      <c r="C45" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="37"/>
+      <c r="E45" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H45" s="3"/>
       <c r="I45" s="13"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="3">
         <v>40</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="2"/>
+      <c r="C46" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H46" s="3"/>
       <c r="I46" s="13"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="3"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="2"/>
+    <row r="47" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="3">
+        <v>41</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="37"/>
+      <c r="E47" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H47" s="3"/>
       <c r="I47" s="13"/>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="2"/>
@@ -3128,8 +3691,8 @@
     </row>
     <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="2"/>
@@ -3139,8 +3702,8 @@
     </row>
     <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="37"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="2"/>
@@ -3150,8 +3713,8 @@
     </row>
     <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="37"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="2"/>
@@ -3161,8 +3724,8 @@
     </row>
     <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="2"/>
@@ -3172,8 +3735,8 @@
     </row>
     <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="37"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="2"/>
@@ -3183,8 +3746,8 @@
     </row>
     <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="3"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="37"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="2"/>
@@ -3194,8 +3757,8 @@
     </row>
     <row r="55" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="3"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="32"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="2"/>
@@ -3205,62 +3768,62 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E3:H4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合演習資料/4.テスト仕様/運用テスト仕様書.xlsx
+++ b/総合演習資料/4.テスト仕様/運用テスト仕様書.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="101">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -804,54 +804,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員情報管理（一般用）の「個人情報を確認」を押す</t>
-    <rPh sb="13" eb="15">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>修正（一般用）画面が表示される。</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>イッパンヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「旧パスワード」と「新パスワード」を入力して「修正」をおす</t>
-    <rPh sb="1" eb="2">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログアウト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -925,33 +877,6 @@
   <si>
     <t>社員ID「201705102」の「木本　誠二」の詳細画面が表示される</t>
     <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直リンクテスト（ログイン済）</t>
-    <rPh sb="0" eb="1">
-      <t>チョク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員ID「201705101」の「管　一郎」の直リンクをおす</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>チョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員ID「201705101」の「管　一郎」の詳細画面が表示される</t>
-    <rPh sb="28" eb="30">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1435,6 +1360,14 @@
     <rPh sb="10" eb="11">
       <t>シン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">綾瀬　美紀 </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1442,7 +1375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1493,6 +1426,15 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1691,12 +1633,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1791,28 +1736,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2741,10 +2693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J55"/>
+  <dimension ref="B1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2814,26 +2766,26 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2857,10 +2809,10 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
@@ -2870,7 +2822,9 @@
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I7" s="12">
         <v>43030</v>
       </c>
@@ -2880,10 +2834,10 @@
       <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
@@ -2893,7 +2847,9 @@
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I8" s="13"/>
       <c r="J8" s="3"/>
     </row>
@@ -2901,8 +2857,8 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
@@ -2912,7 +2868,9 @@
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I9" s="13"/>
       <c r="J9" s="3"/>
     </row>
@@ -2920,8 +2878,8 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="8" t="s">
         <v>24</v>
       </c>
@@ -2931,7 +2889,9 @@
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="J10" s="3"/>
     </row>
@@ -2939,8 +2899,8 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
@@ -2950,7 +2910,9 @@
       <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I11" s="13"/>
       <c r="J11" s="3"/>
     </row>
@@ -2958,8 +2920,8 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="8" t="s">
         <v>30</v>
       </c>
@@ -2969,7 +2931,9 @@
       <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I12" s="13"/>
       <c r="J12" s="3"/>
     </row>
@@ -2977,8 +2941,8 @@
       <c r="B13" s="3">
         <v>7</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="8" t="s">
         <v>33</v>
       </c>
@@ -2988,7 +2952,9 @@
       <c r="G13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="3"/>
     </row>
@@ -2996,10 +2962,10 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
@@ -3009,7 +2975,9 @@
       <c r="G14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I14" s="13"/>
       <c r="J14" s="3"/>
     </row>
@@ -3017,8 +2985,8 @@
       <c r="B15" s="3">
         <v>9</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="8" t="s">
         <v>38</v>
       </c>
@@ -3028,7 +2996,9 @@
       <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I15" s="13"/>
       <c r="J15" s="3"/>
     </row>
@@ -3036,8 +3006,8 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="8" t="s">
         <v>45</v>
       </c>
@@ -3047,7 +3017,9 @@
       <c r="G16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I16" s="13"/>
       <c r="J16" s="3"/>
     </row>
@@ -3055,10 +3027,10 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="33"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="8" t="s">
         <v>42</v>
       </c>
@@ -3068,7 +3040,9 @@
       <c r="G17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="3"/>
     </row>
@@ -3076,8 +3050,8 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="8" t="s">
         <v>44</v>
       </c>
@@ -3087,7 +3061,9 @@
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I18" s="13"/>
       <c r="J18" s="3"/>
     </row>
@@ -3095,10 +3071,10 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="37"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="8" t="s">
         <v>48</v>
       </c>
@@ -3108,7 +3084,9 @@
       <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I19" s="13"/>
       <c r="J19" s="3"/>
     </row>
@@ -3116,8 +3094,8 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="8" t="s">
         <v>50</v>
       </c>
@@ -3127,7 +3105,9 @@
       <c r="G20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="3"/>
     </row>
@@ -3135,8 +3115,8 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
@@ -3146,7 +3126,9 @@
       <c r="G21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I21" s="13"/>
       <c r="J21" s="3"/>
     </row>
@@ -3154,8 +3136,8 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="8" t="s">
         <v>54</v>
       </c>
@@ -3165,7 +3147,9 @@
       <c r="G22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I22" s="13"/>
       <c r="J22" s="3"/>
     </row>
@@ -3173,20 +3157,22 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I23" s="13"/>
       <c r="J23" s="3"/>
     </row>
@@ -3194,10 +3180,10 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="37"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="8" t="s">
         <v>22</v>
       </c>
@@ -3207,7 +3193,9 @@
       <c r="G24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I24" s="13"/>
       <c r="J24" s="3"/>
     </row>
@@ -3215,8 +3203,8 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="8" t="s">
         <v>23</v>
       </c>
@@ -3226,7 +3214,9 @@
       <c r="G25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I25" s="13"/>
       <c r="J25" s="3"/>
     </row>
@@ -3234,8 +3224,8 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="8" t="s">
         <v>24</v>
       </c>
@@ -3245,7 +3235,9 @@
       <c r="G26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I26" s="13"/>
       <c r="J26" s="3"/>
     </row>
@@ -3253,8 +3245,8 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="8" t="s">
         <v>28</v>
       </c>
@@ -3264,7 +3256,9 @@
       <c r="G27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I27" s="13"/>
       <c r="J27" s="3"/>
     </row>
@@ -3272,8 +3266,8 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="8" t="s">
         <v>30</v>
       </c>
@@ -3283,7 +3277,9 @@
       <c r="G28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I28" s="13"/>
       <c r="J28" s="3"/>
     </row>
@@ -3291,8 +3287,8 @@
       <c r="B29" s="3">
         <v>23</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="8" t="s">
         <v>33</v>
       </c>
@@ -3302,386 +3298,382 @@
       <c r="G29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I29" s="13"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="33"/>
+        <v>59</v>
+      </c>
+      <c r="D30" s="32"/>
       <c r="E30" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I30" s="13"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
-        <v>25</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
+        <v>28</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="32"/>
       <c r="E31" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I31" s="13"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="24" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
-        <v>26</v>
-      </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="37"/>
+        <v>29</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="32"/>
       <c r="E32" s="8" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I32" s="13"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
-        <v>27</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="37"/>
+        <v>30</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="39"/>
       <c r="E33" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="3"/>
+      <c r="H33" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I33" s="13"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
-        <v>28</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="37"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="32"/>
       <c r="E34" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I34" s="13"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
-        <v>29</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="32"/>
       <c r="E35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I35" s="13"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
-        <v>30</v>
-      </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="32"/>
       <c r="E36" s="8" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I36" s="13"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
-        <v>31</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="37"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="32"/>
       <c r="E37" s="8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I37" s="13"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="2:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
-        <v>32</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="37"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="32"/>
       <c r="E38" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I38" s="13"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
-        <v>33</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="37"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="32"/>
       <c r="E39" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H39" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I39" s="13"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
-        <v>34</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="37"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="32"/>
       <c r="E40" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I40" s="13"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="2:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
-        <v>35</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="37"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="32"/>
       <c r="E41" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I41" s="13"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="2:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
-        <v>36</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="37"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="32"/>
       <c r="E42" s="8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I42" s="13"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
-        <v>37</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="37"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="32"/>
       <c r="E43" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H43" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I43" s="13"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="3">
-        <v>38</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>75</v>
-      </c>
+    <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="3"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="3"/>
       <c r="I44" s="13"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="3">
-        <v>39</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>75</v>
-      </c>
+    <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="3"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="3"/>
       <c r="I45" s="13"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="3">
-        <v>40</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>75</v>
-      </c>
+    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="3"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="3"/>
       <c r="I46" s="13"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="2:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="3">
-        <v>41</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>75</v>
-      </c>
+    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="3"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="3"/>
       <c r="I47" s="13"/>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="37"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="2"/>
@@ -3691,8 +3683,8 @@
     </row>
     <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="37"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="2"/>
@@ -3702,8 +3694,8 @@
     </row>
     <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="37"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="2"/>
@@ -3713,8 +3705,8 @@
     </row>
     <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="37"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="2"/>
@@ -3722,111 +3714,66 @@
       <c r="I51" s="13"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="3"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="3"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="3"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="3"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
+  <mergeCells count="52">
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E3:H4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C33:D33" r:id="rId1" display="綾瀬　美紀 "/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/総合演習資料/4.テスト仕様/運用テスト仕様書.xlsx
+++ b/総合演習資料/4.テスト仕様/運用テスト仕様書.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
   <si>
     <t>テスト観点</t>
     <rPh sb="3" eb="5">
@@ -1360,10 +1360,6 @@
     <rPh sb="10" eb="11">
       <t>シン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1736,25 +1732,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2695,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2766,26 +2762,26 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="34"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2809,10 +2805,10 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
@@ -2822,9 +2818,7 @@
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="12">
         <v>43030</v>
       </c>
@@ -2834,10 +2828,10 @@
       <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
@@ -2847,9 +2841,7 @@
       <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="13"/>
       <c r="J8" s="3"/>
     </row>
@@ -2857,8 +2849,8 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
@@ -2868,9 +2860,7 @@
       <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="13"/>
       <c r="J9" s="3"/>
     </row>
@@ -2878,8 +2868,8 @@
       <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="8" t="s">
         <v>24</v>
       </c>
@@ -2889,9 +2879,7 @@
       <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="13"/>
       <c r="J10" s="3"/>
     </row>
@@ -2899,8 +2887,8 @@
       <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
@@ -2910,9 +2898,7 @@
       <c r="G11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="13"/>
       <c r="J11" s="3"/>
     </row>
@@ -2920,8 +2906,8 @@
       <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="8" t="s">
         <v>30</v>
       </c>
@@ -2931,9 +2917,7 @@
       <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="13"/>
       <c r="J12" s="3"/>
     </row>
@@ -2941,8 +2925,8 @@
       <c r="B13" s="3">
         <v>7</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="8" t="s">
         <v>33</v>
       </c>
@@ -2952,9 +2936,7 @@
       <c r="G13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="13"/>
       <c r="J13" s="3"/>
     </row>
@@ -2962,10 +2944,10 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
@@ -2975,9 +2957,7 @@
       <c r="G14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="13"/>
       <c r="J14" s="3"/>
     </row>
@@ -2985,8 +2965,8 @@
       <c r="B15" s="3">
         <v>9</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="8" t="s">
         <v>38</v>
       </c>
@@ -2996,9 +2976,7 @@
       <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="13"/>
       <c r="J15" s="3"/>
     </row>
@@ -3006,8 +2984,8 @@
       <c r="B16" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="8" t="s">
         <v>45</v>
       </c>
@@ -3017,9 +2995,7 @@
       <c r="G16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="13"/>
       <c r="J16" s="3"/>
     </row>
@@ -3027,10 +3003,10 @@
       <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="8" t="s">
         <v>42</v>
       </c>
@@ -3040,9 +3016,7 @@
       <c r="G17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="13"/>
       <c r="J17" s="3"/>
     </row>
@@ -3050,8 +3024,8 @@
       <c r="B18" s="3">
         <v>12</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="8" t="s">
         <v>44</v>
       </c>
@@ -3061,9 +3035,7 @@
       <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="13"/>
       <c r="J18" s="3"/>
     </row>
@@ -3071,10 +3043,10 @@
       <c r="B19" s="3">
         <v>13</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="32"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="8" t="s">
         <v>48</v>
       </c>
@@ -3084,9 +3056,7 @@
       <c r="G19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="13"/>
       <c r="J19" s="3"/>
     </row>
@@ -3094,8 +3064,8 @@
       <c r="B20" s="3">
         <v>14</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="8" t="s">
         <v>50</v>
       </c>
@@ -3105,9 +3075,7 @@
       <c r="G20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H20" s="3"/>
       <c r="I20" s="13"/>
       <c r="J20" s="3"/>
     </row>
@@ -3115,8 +3083,8 @@
       <c r="B21" s="3">
         <v>15</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
@@ -3126,9 +3094,7 @@
       <c r="G21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="13"/>
       <c r="J21" s="3"/>
     </row>
@@ -3136,8 +3102,8 @@
       <c r="B22" s="3">
         <v>16</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="8" t="s">
         <v>54</v>
       </c>
@@ -3147,9 +3113,7 @@
       <c r="G22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="13"/>
       <c r="J22" s="3"/>
     </row>
@@ -3157,10 +3121,10 @@
       <c r="B23" s="3">
         <v>17</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="8" t="s">
         <v>58</v>
       </c>
@@ -3170,9 +3134,7 @@
       <c r="G23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="13"/>
       <c r="J23" s="3"/>
     </row>
@@ -3180,10 +3142,10 @@
       <c r="B24" s="3">
         <v>18</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="8" t="s">
         <v>22</v>
       </c>
@@ -3193,9 +3155,7 @@
       <c r="G24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H24" s="3"/>
       <c r="I24" s="13"/>
       <c r="J24" s="3"/>
     </row>
@@ -3203,8 +3163,8 @@
       <c r="B25" s="3">
         <v>19</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="8" t="s">
         <v>23</v>
       </c>
@@ -3214,9 +3174,7 @@
       <c r="G25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="13"/>
       <c r="J25" s="3"/>
     </row>
@@ -3224,8 +3182,8 @@
       <c r="B26" s="3">
         <v>20</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="8" t="s">
         <v>24</v>
       </c>
@@ -3235,9 +3193,7 @@
       <c r="G26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H26" s="3"/>
       <c r="I26" s="13"/>
       <c r="J26" s="3"/>
     </row>
@@ -3245,8 +3201,8 @@
       <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="8" t="s">
         <v>28</v>
       </c>
@@ -3256,9 +3212,7 @@
       <c r="G27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="13"/>
       <c r="J27" s="3"/>
     </row>
@@ -3266,8 +3220,8 @@
       <c r="B28" s="3">
         <v>22</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="8" t="s">
         <v>30</v>
       </c>
@@ -3277,9 +3231,7 @@
       <c r="G28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H28" s="3"/>
       <c r="I28" s="13"/>
       <c r="J28" s="3"/>
     </row>
@@ -3287,8 +3239,8 @@
       <c r="B29" s="3">
         <v>23</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="8" t="s">
         <v>33</v>
       </c>
@@ -3298,9 +3250,7 @@
       <c r="G29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H29" s="3"/>
       <c r="I29" s="13"/>
       <c r="J29" s="3"/>
     </row>
@@ -3308,10 +3258,10 @@
       <c r="B30" s="3">
         <v>27</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="8" t="s">
         <v>60</v>
       </c>
@@ -3321,9 +3271,7 @@
       <c r="G30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H30" s="3"/>
       <c r="I30" s="13"/>
       <c r="J30" s="3"/>
     </row>
@@ -3331,10 +3279,10 @@
       <c r="B31" s="3">
         <v>28</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="8" t="s">
         <v>63</v>
       </c>
@@ -3344,9 +3292,7 @@
       <c r="G31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H31" s="3"/>
       <c r="I31" s="13"/>
       <c r="J31" s="3"/>
     </row>
@@ -3354,10 +3300,10 @@
       <c r="B32" s="3">
         <v>29</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="8" t="s">
         <v>66</v>
       </c>
@@ -3367,9 +3313,7 @@
       <c r="G32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H32" s="3"/>
       <c r="I32" s="13"/>
       <c r="J32" s="3"/>
     </row>
@@ -3378,7 +3322,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="39"/>
       <c r="E33" s="8" t="s">
@@ -3390,9 +3334,7 @@
       <c r="G33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="13"/>
       <c r="J33" s="3"/>
     </row>
@@ -3400,10 +3342,10 @@
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="32"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="8" t="s">
         <v>70</v>
       </c>
@@ -3413,9 +3355,7 @@
       <c r="G34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H34" s="3"/>
       <c r="I34" s="13"/>
       <c r="J34" s="3"/>
     </row>
@@ -3423,10 +3363,10 @@
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="8" t="s">
         <v>73</v>
       </c>
@@ -3436,9 +3376,7 @@
       <c r="G35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H35" s="3"/>
       <c r="I35" s="13"/>
       <c r="J35" s="3"/>
     </row>
@@ -3446,10 +3384,10 @@
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="32"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="8" t="s">
         <v>76</v>
       </c>
@@ -3459,9 +3397,7 @@
       <c r="G36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H36" s="3"/>
       <c r="I36" s="13"/>
       <c r="J36" s="3"/>
     </row>
@@ -3469,10 +3405,10 @@
       <c r="B37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="8" t="s">
         <v>79</v>
       </c>
@@ -3482,9 +3418,7 @@
       <c r="G37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H37" s="3"/>
       <c r="I37" s="13"/>
       <c r="J37" s="3"/>
     </row>
@@ -3492,10 +3426,10 @@
       <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="32"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="8" t="s">
         <v>82</v>
       </c>
@@ -3505,9 +3439,7 @@
       <c r="G38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H38" s="3"/>
       <c r="I38" s="13"/>
       <c r="J38" s="3"/>
     </row>
@@ -3515,10 +3447,10 @@
       <c r="B39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="32"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="8" t="s">
         <v>86</v>
       </c>
@@ -3528,9 +3460,7 @@
       <c r="G39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H39" s="3"/>
       <c r="I39" s="13"/>
       <c r="J39" s="3"/>
     </row>
@@ -3538,10 +3468,10 @@
       <c r="B40" s="3">
         <v>38</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="8" t="s">
         <v>88</v>
       </c>
@@ -3551,9 +3481,7 @@
       <c r="G40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H40" s="3"/>
       <c r="I40" s="13"/>
       <c r="J40" s="3"/>
     </row>
@@ -3561,10 +3489,10 @@
       <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="8" t="s">
         <v>91</v>
       </c>
@@ -3574,9 +3502,7 @@
       <c r="G41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H41" s="3"/>
       <c r="I41" s="13"/>
       <c r="J41" s="3"/>
     </row>
@@ -3584,10 +3510,10 @@
       <c r="B42" s="3">
         <v>40</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="32"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="8" t="s">
         <v>95</v>
       </c>
@@ -3597,9 +3523,7 @@
       <c r="G42" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H42" s="3"/>
       <c r="I42" s="13"/>
       <c r="J42" s="3"/>
     </row>
@@ -3607,10 +3531,10 @@
       <c r="B43" s="3">
         <v>41</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="32"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="8" t="s">
         <v>97</v>
       </c>
@@ -3620,16 +3544,14 @@
       <c r="G43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="H43" s="3"/>
       <c r="I43" s="13"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="2"/>
@@ -3639,8 +3561,8 @@
     </row>
     <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="2"/>
@@ -3650,8 +3572,8 @@
     </row>
     <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="32"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="2"/>
@@ -3661,8 +3583,8 @@
     </row>
     <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="2"/>
@@ -3672,8 +3594,8 @@
     </row>
     <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="2"/>
@@ -3683,8 +3605,8 @@
     </row>
     <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="2"/>
@@ -3694,8 +3616,8 @@
     </row>
     <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="37"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="2"/>
@@ -3705,8 +3627,8 @@
     </row>
     <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="37"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="2"/>
@@ -3716,58 +3638,58 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E3:H4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
